--- a/data/arbeitstabelle.xlsx
+++ b/data/arbeitstabelle.xlsx
@@ -129,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -139,11 +139,77 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
@@ -167,6 +233,72 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5606,81 +5738,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="12" customWidth="true"/>
-    <col min="2" max="2" width="2.42578125" customWidth="true"/>
+    <col min="1" max="1" width="17.85546875" style="12" customWidth="true"/>
+    <col min="2" max="2" width="17.85546875" customWidth="true"/>
     <col min="75" max="75" width="16.6640625" customWidth="true"/>
     <col min="76" max="76" width="17.83203125" customWidth="true"/>
-    <col min="3" max="3" width="2.42578125" customWidth="true"/>
-    <col min="4" max="4" width="2.42578125" customWidth="true"/>
-    <col min="5" max="5" width="2.42578125" customWidth="true"/>
-    <col min="6" max="6" width="2.42578125" customWidth="true"/>
-    <col min="7" max="7" width="2.42578125" customWidth="true"/>
-    <col min="8" max="8" width="2.42578125" customWidth="true"/>
-    <col min="9" max="9" width="2.42578125" customWidth="true"/>
-    <col min="10" max="10" width="2.42578125" customWidth="true"/>
-    <col min="11" max="11" width="2.42578125" customWidth="true"/>
-    <col min="12" max="12" width="2.42578125" customWidth="true"/>
-    <col min="13" max="13" width="2.42578125" customWidth="true"/>
-    <col min="14" max="14" width="2.42578125" customWidth="true"/>
-    <col min="15" max="15" width="2.42578125" customWidth="true"/>
-    <col min="16" max="16" width="2.42578125" customWidth="true"/>
-    <col min="17" max="17" width="2.42578125" customWidth="true"/>
-    <col min="18" max="18" width="2.42578125" customWidth="true"/>
-    <col min="19" max="19" width="2.42578125" customWidth="true"/>
-    <col min="20" max="20" width="2.42578125" customWidth="true"/>
-    <col min="21" max="21" width="2.42578125" customWidth="true"/>
-    <col min="22" max="22" width="2.42578125" customWidth="true"/>
-    <col min="23" max="23" width="2.42578125" customWidth="true"/>
-    <col min="24" max="24" width="2.42578125" customWidth="true"/>
-    <col min="25" max="25" width="2.42578125" customWidth="true"/>
-    <col min="26" max="26" width="2.42578125" customWidth="true"/>
-    <col min="27" max="27" width="2.42578125" customWidth="true"/>
-    <col min="28" max="28" width="2.42578125" customWidth="true"/>
-    <col min="29" max="29" width="2.42578125" customWidth="true"/>
-    <col min="30" max="30" width="2.42578125" customWidth="true"/>
-    <col min="31" max="31" width="2.42578125" customWidth="true"/>
-    <col min="32" max="32" width="2.42578125" customWidth="true"/>
-    <col min="33" max="33" width="2.42578125" customWidth="true"/>
-    <col min="34" max="34" width="2.42578125" customWidth="true"/>
-    <col min="35" max="35" width="2.42578125" customWidth="true"/>
-    <col min="36" max="36" width="2.42578125" customWidth="true"/>
-    <col min="37" max="37" width="2.42578125" customWidth="true"/>
-    <col min="38" max="38" width="2.42578125" customWidth="true"/>
-    <col min="39" max="39" width="2.42578125" customWidth="true"/>
-    <col min="40" max="40" width="2.42578125" customWidth="true"/>
-    <col min="41" max="41" width="2.42578125" customWidth="true"/>
-    <col min="42" max="42" width="2.42578125" customWidth="true"/>
-    <col min="43" max="43" width="2.42578125" customWidth="true"/>
-    <col min="44" max="44" width="2.42578125" customWidth="true"/>
-    <col min="45" max="45" width="2.42578125" customWidth="true"/>
-    <col min="46" max="46" width="2.42578125" customWidth="true"/>
-    <col min="47" max="47" width="2.42578125" customWidth="true"/>
-    <col min="48" max="48" width="2.42578125" customWidth="true"/>
-    <col min="49" max="49" width="2.42578125" customWidth="true"/>
-    <col min="50" max="50" width="2.42578125" customWidth="true"/>
-    <col min="51" max="51" width="2.42578125" customWidth="true"/>
-    <col min="52" max="52" width="2.42578125" customWidth="true"/>
-    <col min="53" max="53" width="2.42578125" customWidth="true"/>
-    <col min="54" max="54" width="2.42578125" customWidth="true"/>
-    <col min="55" max="55" width="2.42578125" customWidth="true"/>
-    <col min="56" max="56" width="2.42578125" customWidth="true"/>
-    <col min="57" max="57" width="2.42578125" customWidth="true"/>
-    <col min="58" max="58" width="2.42578125" customWidth="true"/>
-    <col min="59" max="59" width="2.42578125" customWidth="true"/>
-    <col min="60" max="60" width="2.42578125" customWidth="true"/>
-    <col min="61" max="61" width="2.42578125" customWidth="true"/>
-    <col min="62" max="62" width="2.42578125" customWidth="true"/>
-    <col min="63" max="63" width="2.42578125" customWidth="true"/>
-    <col min="64" max="64" width="2.42578125" customWidth="true"/>
-    <col min="65" max="65" width="2.42578125" customWidth="true"/>
-    <col min="66" max="66" width="2.42578125" customWidth="true"/>
-    <col min="67" max="67" width="2.42578125" customWidth="true"/>
-    <col min="68" max="68" width="2.42578125" customWidth="true"/>
-    <col min="69" max="69" width="2.42578125" customWidth="true"/>
-    <col min="70" max="70" width="2.42578125" customWidth="true"/>
-    <col min="71" max="71" width="2.42578125" customWidth="true"/>
-    <col min="72" max="72" width="2.42578125" customWidth="true"/>
-    <col min="73" max="73" width="2.42578125" customWidth="true"/>
+    <col min="3" max="3" width="17.85546875" customWidth="true"/>
+    <col min="4" max="4" width="17.85546875" customWidth="true"/>
+    <col min="5" max="5" width="17.85546875" customWidth="true"/>
+    <col min="6" max="6" width="17.85546875" customWidth="true"/>
+    <col min="7" max="7" width="17.85546875" customWidth="true"/>
+    <col min="8" max="8" width="17.85546875" customWidth="true"/>
+    <col min="9" max="9" width="17.85546875" customWidth="true"/>
+    <col min="10" max="10" width="17.85546875" customWidth="true"/>
+    <col min="11" max="11" width="17.85546875" customWidth="true"/>
+    <col min="12" max="12" width="17.85546875" customWidth="true"/>
+    <col min="13" max="13" width="17.85546875" customWidth="true"/>
+    <col min="14" max="14" width="17.85546875" customWidth="true"/>
+    <col min="15" max="15" width="17.85546875" customWidth="true"/>
+    <col min="16" max="16" width="17.85546875" customWidth="true"/>
+    <col min="17" max="17" width="17.85546875" customWidth="true"/>
+    <col min="18" max="18" width="17.85546875" customWidth="true"/>
+    <col min="19" max="19" width="17.85546875" customWidth="true"/>
+    <col min="20" max="20" width="17.85546875" customWidth="true"/>
+    <col min="21" max="21" width="17.85546875" customWidth="true"/>
+    <col min="22" max="22" width="17.85546875" customWidth="true"/>
+    <col min="23" max="23" width="17.85546875" customWidth="true"/>
+    <col min="24" max="24" width="17.85546875" customWidth="true"/>
+    <col min="25" max="25" width="17.85546875" customWidth="true"/>
+    <col min="26" max="26" width="17.85546875" customWidth="true"/>
+    <col min="27" max="27" width="17.85546875" customWidth="true"/>
+    <col min="28" max="28" width="17.85546875" customWidth="true"/>
+    <col min="29" max="29" width="17.85546875" customWidth="true"/>
+    <col min="30" max="30" width="17.85546875" customWidth="true"/>
+    <col min="31" max="31" width="17.85546875" customWidth="true"/>
+    <col min="32" max="32" width="17.85546875" customWidth="true"/>
+    <col min="33" max="33" width="17.85546875" customWidth="true"/>
+    <col min="34" max="34" width="17.85546875" customWidth="true"/>
+    <col min="35" max="35" width="17.85546875" customWidth="true"/>
+    <col min="36" max="36" width="17.85546875" customWidth="true"/>
+    <col min="37" max="37" width="17.85546875" customWidth="true"/>
+    <col min="38" max="38" width="17.85546875" customWidth="true"/>
+    <col min="39" max="39" width="17.85546875" customWidth="true"/>
+    <col min="40" max="40" width="17.85546875" customWidth="true"/>
+    <col min="41" max="41" width="17.85546875" customWidth="true"/>
+    <col min="42" max="42" width="17.85546875" customWidth="true"/>
+    <col min="43" max="43" width="17.85546875" customWidth="true"/>
+    <col min="44" max="44" width="17.85546875" customWidth="true"/>
+    <col min="45" max="45" width="17.85546875" customWidth="true"/>
+    <col min="46" max="46" width="17.85546875" customWidth="true"/>
+    <col min="47" max="47" width="17.85546875" customWidth="true"/>
+    <col min="48" max="48" width="17.85546875" customWidth="true"/>
+    <col min="49" max="49" width="17.85546875" customWidth="true"/>
+    <col min="50" max="50" width="17.85546875" customWidth="true"/>
+    <col min="51" max="51" width="17.85546875" customWidth="true"/>
+    <col min="52" max="52" width="17.85546875" customWidth="true"/>
+    <col min="53" max="53" width="17.85546875" customWidth="true"/>
+    <col min="54" max="54" width="17.85546875" customWidth="true"/>
+    <col min="55" max="55" width="17.85546875" customWidth="true"/>
+    <col min="56" max="56" width="17.85546875" customWidth="true"/>
+    <col min="57" max="57" width="17.85546875" customWidth="true"/>
+    <col min="58" max="58" width="17.85546875" customWidth="true"/>
+    <col min="59" max="59" width="17.85546875" customWidth="true"/>
+    <col min="60" max="60" width="17.85546875" customWidth="true"/>
+    <col min="61" max="61" width="17.85546875" customWidth="true"/>
+    <col min="62" max="62" width="17.85546875" customWidth="true"/>
+    <col min="63" max="63" width="17.85546875" customWidth="true"/>
+    <col min="64" max="64" width="17.85546875" customWidth="true"/>
+    <col min="65" max="65" width="17.85546875" customWidth="true"/>
+    <col min="66" max="66" width="17.85546875" customWidth="true"/>
+    <col min="67" max="67" width="17.85546875" customWidth="true"/>
+    <col min="68" max="68" width="17.85546875" customWidth="true"/>
+    <col min="69" max="69" width="17.85546875" customWidth="true"/>
+    <col min="70" max="70" width="17.85546875" customWidth="true"/>
+    <col min="71" max="71" width="17.85546875" customWidth="true"/>
+    <col min="72" max="72" width="17.85546875" customWidth="true"/>
+    <col min="73" max="73" width="17.85546875" customWidth="true"/>
     <col min="74" max="74" width="17.83203125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -5770,5303 +5902,5303 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU2">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU3">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <v>4</v>
+        <v>34359738368</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU4">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <v>6</v>
+        <v>51539607552</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU5">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <v>8</v>
+        <v>68719476736</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU6">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <v>10</v>
+        <v>85899345920</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU7">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <v>12</v>
+        <v>103079215104</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU8">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <v>14</v>
+        <v>120259084288</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU9">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <v>16</v>
+        <v>137438953472</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU10">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <v>18</v>
+        <v>154618822656</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU11">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <v>20</v>
+        <v>171798691840</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU12">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <v>22</v>
+        <v>188978561024</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU13">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <v>24</v>
+        <v>206158430208</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU14">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <v>26</v>
+        <v>223338299392</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU15">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <v>28</v>
+        <v>240518168576</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU16">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <v>30</v>
+        <v>257698037760</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU17">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <v>32</v>
+        <v>274877906944</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU18">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <v>34</v>
+        <v>292057776128</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU19">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <v>36</v>
+        <v>309237645312</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU20">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <v>38</v>
+        <v>326417514496</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU21">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <v>40</v>
+        <v>343597383680</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU22">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <v>42</v>
+        <v>360777252864</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU23">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <v>44</v>
+        <v>377957122048</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU24">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <v>46</v>
+        <v>395136991232</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AA25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AB25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AC25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AD25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AE25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AF25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AG25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AH25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AI25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AJ25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AK25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AL25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AR25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AT25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AU25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AV25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AW25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AX25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AY25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="AZ25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BA25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BB25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BC25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BD25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BF25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BG25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BH25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BI25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BJ25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BK25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BL25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BM25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BN25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BO25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BP25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BQ25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BR25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BS25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BT25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
       <c r="BU25">
-        <v>2</v>
+        <v>17179869184</v>
       </c>
     </row>
   </sheetData>
